--- a/output/descriptive/d_DE_incare.xlsx
+++ b/output/descriptive/d_DE_incare.xlsx
@@ -362,7 +362,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>874</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3">
